--- a/src/test/resource/Datasheets/EbayDataSheet.xlsx
+++ b/src/test/resource/Datasheets/EbayDataSheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasel\workspace\SaturdayDeadpoolProject\src\test\resource\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60C61EA-31D6-4E5E-9831-13F79DBBE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73695D8F-07CF-434E-9107-AD306B21D32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="6300" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="2040" windowWidth="12504" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EbayDataSheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -407,7 +408,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,4 +520,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED845E5-C548-4443-B5E0-9BA35426D81D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>